--- a/spec/fixtures/files/features/biomedical_concepts/show_excel_expected.xlsx
+++ b/spec/fixtures/files/features/biomedical_concepts/show_excel_expected.xlsx
@@ -303,7 +303,7 @@
       </c>
       <c t="inlineStr" r="B4">
         <is>
-          <t xml:space="preserve">true</t>
+          <t xml:space="preserve">false</t>
         </is>
       </c>
       <c t="inlineStr" r="C4">
@@ -311,27 +311,17 @@
           <t xml:space="preserve">code</t>
         </is>
       </c>
-      <c t="inlineStr" r="D4">
-        <is>
-          <t xml:space="preserve">Unit</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="E4">
-        <is>
-          <t xml:space="preserve">Unit</t>
-        </is>
-      </c>
       <c t="inlineStr" r="F4">
         <is>
-          <t xml:space="preserve">PQR</t>
+          <t xml:space="preserve">CD</t>
         </is>
       </c>
       <c r="G4" s="65">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c t="inlineStr" r="H4">
         <is>
-          <t xml:space="preserve">kg (Code List: C66770 v59.0.0) LB (Code List: C66770 v59.0.0)</t>
+          <t xml:space="preserve">WEIGHT C25208 (VSTESTCD C66741 v61.0.0)</t>
         </is>
       </c>
     </row>
@@ -343,7 +333,7 @@
       </c>
       <c t="inlineStr" r="B5">
         <is>
-          <t xml:space="preserve">false</t>
+          <t xml:space="preserve">true</t>
         </is>
       </c>
       <c t="inlineStr" r="C5">
@@ -351,17 +341,27 @@
           <t xml:space="preserve">code</t>
         </is>
       </c>
+      <c t="inlineStr" r="D5">
+        <is>
+          <t xml:space="preserve">Unit</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E5">
+        <is>
+          <t xml:space="preserve">Unit</t>
+        </is>
+      </c>
       <c t="inlineStr" r="F5">
         <is>
-          <t xml:space="preserve">CD</t>
+          <t xml:space="preserve">PQR</t>
         </is>
       </c>
       <c r="G5" s="65">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c t="inlineStr" r="H5">
         <is>
-          <t xml:space="preserve">WEIGHT (Code List: C66741 v61.0.0)</t>
+          <t xml:space="preserve">kg C28252 (VSRESU C66770 v59.0.0); LB C48531 (VSRESU C66770 v59.0.0)</t>
         </is>
       </c>
     </row>

--- a/spec/fixtures/files/features/biomedical_concepts/show_excel_expected.xlsx
+++ b/spec/fixtures/files/features/biomedical_concepts/show_excel_expected.xlsx
@@ -203,7 +203,7 @@
   <cols>
     <col min="1" max="1" width="9.450000000000001" customWidth="1"/>
     <col min="2" max="2" width="9.450000000000001" customWidth="1"/>
-    <col min="3" max="3" width="6.75" customWidth="1"/>
+    <col min="3" max="3" width="10.8" customWidth="1"/>
     <col min="4" max="4" width="17.55" customWidth="1"/>
     <col min="5" max="5" width="14.850000000000001" customWidth="1"/>
     <col min="6" max="6" width="10.8" customWidth="1"/>
@@ -268,67 +268,54 @@
       </c>
       <c t="inlineStr" r="B3">
         <is>
-          <t xml:space="preserve">true</t>
+          <t xml:space="preserve">false</t>
         </is>
       </c>
       <c t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">value</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="D3">
-        <is>
-          <t xml:space="preserve">Result</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="E3">
-        <is>
-          <t xml:space="preserve">Weight</t>
+          <t xml:space="preserve">--TESTCD</t>
         </is>
       </c>
       <c t="inlineStr" r="F3">
         <is>
-          <t xml:space="preserve">PQR</t>
-        </is>
-      </c>
-      <c t="n" r="G3">
-        <v>5.1</v>
+          <t xml:space="preserve">CD</t>
+        </is>
+      </c>
+      <c r="G3" s="65">
+        <v>8</v>
+      </c>
+      <c t="inlineStr" r="H3">
+        <is>
+          <t xml:space="preserve">WEIGHT C25208 (VSTESTCD C66741 v61.0.0)</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c t="inlineStr" r="A4">
         <is>
-          <t xml:space="preserve">true</t>
+          <t xml:space="preserve">false</t>
         </is>
       </c>
       <c t="inlineStr" r="B4">
         <is>
-          <t xml:space="preserve">false</t>
+          <t xml:space="preserve">true</t>
         </is>
       </c>
       <c t="inlineStr" r="C4">
         <is>
-          <t xml:space="preserve">code</t>
+          <t xml:space="preserve">--STAT</t>
         </is>
       </c>
       <c t="inlineStr" r="F4">
         <is>
-          <t xml:space="preserve">CD</t>
-        </is>
-      </c>
-      <c r="G4" s="65">
-        <v>8</v>
-      </c>
-      <c t="inlineStr" r="H4">
-        <is>
-          <t xml:space="preserve">WEIGHT C25208 (VSTESTCD C66741 v61.0.0)</t>
+          <t xml:space="preserve">BL</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c t="inlineStr" r="A5">
         <is>
-          <t xml:space="preserve">true</t>
+          <t xml:space="preserve">false</t>
         </is>
       </c>
       <c t="inlineStr" r="B5">
@@ -338,30 +325,251 @@
       </c>
       <c t="inlineStr" r="C5">
         <is>
-          <t xml:space="preserve">code</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="D5">
+          <t xml:space="preserve">--SCAT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F5">
+        <is>
+          <t xml:space="preserve">CD</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c t="inlineStr" r="A6">
+        <is>
+          <t xml:space="preserve">false</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B6">
+        <is>
+          <t xml:space="preserve">true</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C6">
+        <is>
+          <t xml:space="preserve">--REASND</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F6">
+        <is>
+          <t xml:space="preserve">CD</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c t="inlineStr" r="A7">
+        <is>
+          <t xml:space="preserve">false</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B7">
+        <is>
+          <t xml:space="preserve">true</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C7">
+        <is>
+          <t xml:space="preserve">--POS</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F7">
+        <is>
+          <t xml:space="preserve">CD</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c t="inlineStr" r="A8">
+        <is>
+          <t xml:space="preserve">true</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B8">
+        <is>
+          <t xml:space="preserve">true</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C8">
+        <is>
+          <t xml:space="preserve">--ORRESU</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="D8">
         <is>
           <t xml:space="preserve">Unit</t>
         </is>
       </c>
-      <c t="inlineStr" r="E5">
+      <c t="inlineStr" r="E8">
         <is>
           <t xml:space="preserve">Unit</t>
         </is>
       </c>
-      <c t="inlineStr" r="F5">
+      <c t="inlineStr" r="F8">
         <is>
           <t xml:space="preserve">PQR</t>
         </is>
       </c>
-      <c r="G5" s="65">
+      <c r="G8" s="65">
         <v>20</v>
       </c>
-      <c t="inlineStr" r="H5">
+      <c t="inlineStr" r="H8">
         <is>
           <t xml:space="preserve">kg C28252 (VSRESU C66770 v59.0.0); LB C48531 (VSRESU C66770 v59.0.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c t="inlineStr" r="A9">
+        <is>
+          <t xml:space="preserve">true</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B9">
+        <is>
+          <t xml:space="preserve">true</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C9">
+        <is>
+          <t xml:space="preserve">--ORRES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="D9">
+        <is>
+          <t xml:space="preserve">Result</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E9">
+        <is>
+          <t xml:space="preserve">Weight</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F9">
+        <is>
+          <t xml:space="preserve">PQR</t>
+        </is>
+      </c>
+      <c t="n" r="G9">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c t="inlineStr" r="A10">
+        <is>
+          <t xml:space="preserve">false</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B10">
+        <is>
+          <t xml:space="preserve">true</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C10">
+        <is>
+          <t xml:space="preserve">--METHOD</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F10">
+        <is>
+          <t xml:space="preserve">CD</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c t="inlineStr" r="A11">
+        <is>
+          <t xml:space="preserve">false</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B11">
+        <is>
+          <t xml:space="preserve">true</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C11">
+        <is>
+          <t xml:space="preserve">--LOC</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F11">
+        <is>
+          <t xml:space="preserve">CD</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c t="inlineStr" r="A12">
+        <is>
+          <t xml:space="preserve">false</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B12">
+        <is>
+          <t xml:space="preserve">true</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C12">
+        <is>
+          <t xml:space="preserve">--LAT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F12">
+        <is>
+          <t xml:space="preserve">CD</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c t="inlineStr" r="A13">
+        <is>
+          <t xml:space="preserve">true</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B13">
+        <is>
+          <t xml:space="preserve">true</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C13">
+        <is>
+          <t xml:space="preserve">--DTC</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="D13">
+        <is>
+          <t xml:space="preserve">Date and time</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E13">
+        <is>
+          <t xml:space="preserve">Date Time</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F13">
+        <is>
+          <t xml:space="preserve">DATETIME</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c t="inlineStr" r="A14">
+        <is>
+          <t xml:space="preserve">false</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B14">
+        <is>
+          <t xml:space="preserve">true</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C14">
+        <is>
+          <t xml:space="preserve">--CAT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F14">
+        <is>
+          <t xml:space="preserve">CD</t>
         </is>
       </c>
     </row>
